--- a/Code/Results/Cases/Case_9_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023734042530655</v>
+        <v>1.021468094681229</v>
       </c>
       <c r="D2">
-        <v>1.043996871891043</v>
+        <v>1.041026657947236</v>
       </c>
       <c r="E2">
-        <v>1.037009006844312</v>
+        <v>1.035072443836166</v>
       </c>
       <c r="F2">
-        <v>1.048482748975329</v>
+        <v>1.046406555323377</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.060528353881502</v>
+        <v>1.058987259973336</v>
       </c>
       <c r="J2">
-        <v>1.04522732694883</v>
+        <v>1.043025124960476</v>
       </c>
       <c r="K2">
-        <v>1.054875489301416</v>
+        <v>1.051942551147797</v>
       </c>
       <c r="L2">
-        <v>1.047975745299534</v>
+        <v>1.046063866549828</v>
       </c>
       <c r="M2">
-        <v>1.05930556772448</v>
+        <v>1.057255125224063</v>
       </c>
       <c r="N2">
-        <v>1.018228613908976</v>
+        <v>1.018161005450998</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.055508616394506</v>
+        <v>1.05388585978729</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04987190408285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047806769774523</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025631586533441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028267770594575</v>
+        <v>1.0257021632065</v>
       </c>
       <c r="D3">
-        <v>1.047161295602418</v>
+        <v>1.043873176962819</v>
       </c>
       <c r="E3">
-        <v>1.040559636257582</v>
+        <v>1.038356062125918</v>
       </c>
       <c r="F3">
-        <v>1.051735963242838</v>
+        <v>1.049414953534782</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.061712399218147</v>
+        <v>1.060003786260808</v>
       </c>
       <c r="J3">
-        <v>1.048016406954756</v>
+        <v>1.045515866961018</v>
       </c>
       <c r="K3">
-        <v>1.057224307961583</v>
+        <v>1.053973857906104</v>
       </c>
       <c r="L3">
-        <v>1.050698574610508</v>
+        <v>1.048520609605376</v>
       </c>
       <c r="M3">
-        <v>1.061747051209547</v>
+        <v>1.059452316177923</v>
       </c>
       <c r="N3">
-        <v>1.019223794603795</v>
+        <v>1.018854669660446</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.057440845269409</v>
+        <v>1.055624755593628</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.051530051603305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.049240138428492</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026084754056713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031145086860999</v>
+        <v>1.028391690085184</v>
       </c>
       <c r="D4">
-        <v>1.049171820386856</v>
+        <v>1.045683409930942</v>
       </c>
       <c r="E4">
-        <v>1.042818553521942</v>
+        <v>1.040447482640442</v>
       </c>
       <c r="F4">
-        <v>1.053805911148263</v>
+        <v>1.051331014049807</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.062451261966041</v>
+        <v>1.060636900751536</v>
       </c>
       <c r="J4">
-        <v>1.049784311644941</v>
+        <v>1.047095998055014</v>
       </c>
       <c r="K4">
-        <v>1.058710908128509</v>
+        <v>1.055260051798105</v>
       </c>
       <c r="L4">
-        <v>1.052426267254591</v>
+        <v>1.050081071596227</v>
       </c>
       <c r="M4">
-        <v>1.063295581674047</v>
+        <v>1.060847010121933</v>
       </c>
       <c r="N4">
-        <v>1.019854261836813</v>
+        <v>1.019294775552531</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.05866637438922</v>
+        <v>1.056728539001539</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.05258205502049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.05015052569713</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026369373303676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032346978351064</v>
+        <v>1.029515244267901</v>
       </c>
       <c r="D5">
-        <v>1.050013823814293</v>
+        <v>1.046441912335467</v>
       </c>
       <c r="E5">
-        <v>1.043764313518117</v>
+        <v>1.041323266758693</v>
       </c>
       <c r="F5">
-        <v>1.054672273344015</v>
+        <v>1.052133161929111</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.062758287474743</v>
+        <v>1.060899787286628</v>
       </c>
       <c r="J5">
-        <v>1.050524147901435</v>
+        <v>1.047757340321934</v>
       </c>
       <c r="K5">
-        <v>1.059333467430623</v>
+        <v>1.055798985822453</v>
       </c>
       <c r="L5">
-        <v>1.053149650926268</v>
+        <v>1.050734526153084</v>
       </c>
       <c r="M5">
-        <v>1.063943566153667</v>
+        <v>1.061430743784994</v>
       </c>
       <c r="N5">
-        <v>1.02011948877873</v>
+        <v>1.019479922563008</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.059179197978759</v>
+        <v>1.057190514816517</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.053029290239039</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.050539349757507</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026488949421315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032554461964518</v>
+        <v>1.029708703451554</v>
       </c>
       <c r="D6">
-        <v>1.050161262290857</v>
+        <v>1.046574746846756</v>
       </c>
       <c r="E6">
-        <v>1.043928745647547</v>
+        <v>1.041475082108779</v>
       </c>
       <c r="F6">
-        <v>1.054822502023371</v>
+        <v>1.052271992981683</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.062812893010646</v>
+        <v>1.06094666572805</v>
       </c>
       <c r="J6">
-        <v>1.05065416088686</v>
+        <v>1.047873313137986</v>
       </c>
       <c r="K6">
-        <v>1.059444042146452</v>
+        <v>1.055894937393448</v>
       </c>
       <c r="L6">
-        <v>1.053276737911302</v>
+        <v>1.050849009627503</v>
       </c>
       <c r="M6">
-        <v>1.06405712447673</v>
+        <v>1.061532901419796</v>
       </c>
       <c r="N6">
-        <v>1.020167886964646</v>
+        <v>1.019513530593452</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.059269069520306</v>
+        <v>1.057271363914044</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.053116066554988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.050616662402343</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026511273603877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031178571953247</v>
+        <v>1.028432399891452</v>
       </c>
       <c r="D7">
-        <v>1.049200753060619</v>
+        <v>1.045717151522406</v>
       </c>
       <c r="E7">
-        <v>1.042847859602938</v>
+        <v>1.040482909262808</v>
       </c>
       <c r="F7">
-        <v>1.053831629403222</v>
+        <v>1.051361478006082</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.062464606444208</v>
+        <v>1.06065280752508</v>
       </c>
       <c r="J7">
-        <v>1.049811196362043</v>
+        <v>1.04712990688378</v>
       </c>
       <c r="K7">
-        <v>1.058736716054707</v>
+        <v>1.05529060167528</v>
       </c>
       <c r="L7">
-        <v>1.052452417087342</v>
+        <v>1.050113264630478</v>
       </c>
       <c r="M7">
-        <v>1.063318228974337</v>
+        <v>1.060874342218093</v>
       </c>
       <c r="N7">
-        <v>1.019868802606121</v>
+        <v>1.019334416610014</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.058684297771532</v>
+        <v>1.056750170049794</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.052620073055069</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.050193910726882</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026380391568845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025300230234041</v>
+        <v>1.022961799138097</v>
       </c>
       <c r="D8">
-        <v>1.045096209741233</v>
+        <v>1.042038900877592</v>
       </c>
       <c r="E8">
-        <v>1.038238297947124</v>
+        <v>1.036236798238841</v>
       </c>
       <c r="F8">
-        <v>1.049607396006354</v>
+        <v>1.047468109910415</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.060945751790625</v>
+        <v>1.059358910185958</v>
       </c>
       <c r="J8">
-        <v>1.046199143010191</v>
+        <v>1.043924266677541</v>
       </c>
       <c r="K8">
-        <v>1.055698101321281</v>
+        <v>1.052678016928948</v>
       </c>
       <c r="L8">
-        <v>1.048924068848597</v>
+        <v>1.046947310126966</v>
       </c>
       <c r="M8">
-        <v>1.060154852808825</v>
+        <v>1.058041308102414</v>
       </c>
       <c r="N8">
-        <v>1.018581929864956</v>
+        <v>1.018498082543227</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.056180754677449</v>
+        <v>1.054508059288832</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.050476095039768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048351624962129</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025804117261752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014460072261223</v>
+        <v>1.012860326610825</v>
       </c>
       <c r="D9">
-        <v>1.037538799169328</v>
+        <v>1.035255358087482</v>
       </c>
       <c r="E9">
-        <v>1.029778945679998</v>
+        <v>1.028434774501817</v>
       </c>
       <c r="F9">
-        <v>1.041859794913671</v>
+        <v>1.0403200265669</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.058039529394045</v>
+        <v>1.056859275394983</v>
       </c>
       <c r="J9">
-        <v>1.039512341775352</v>
+        <v>1.037966986262745</v>
       </c>
       <c r="K9">
-        <v>1.05005084118073</v>
+        <v>1.047801213428617</v>
       </c>
       <c r="L9">
-        <v>1.042406674018182</v>
+        <v>1.04108276809177</v>
       </c>
       <c r="M9">
-        <v>1.05430836606626</v>
+        <v>1.0527911385313</v>
       </c>
       <c r="N9">
-        <v>1.016188719468962</v>
+        <v>1.016846488750546</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.051553736159498</v>
+        <v>1.050352969380313</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046480076668848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044900080136243</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024700732128772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006992089554216</v>
+        <v>1.005954314077468</v>
       </c>
       <c r="D10">
-        <v>1.032364527346778</v>
+        <v>1.030651293821961</v>
       </c>
       <c r="E10">
-        <v>1.024014754162644</v>
+        <v>1.023167317567605</v>
       </c>
       <c r="F10">
-        <v>1.036605734808594</v>
+        <v>1.035514348753136</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.055994221192325</v>
+        <v>1.055112551252513</v>
       </c>
       <c r="J10">
-        <v>1.034931012957491</v>
+        <v>1.033933666972292</v>
       </c>
       <c r="K10">
-        <v>1.046173024684849</v>
+        <v>1.04448833763306</v>
       </c>
       <c r="L10">
-        <v>1.037963542181648</v>
+        <v>1.037130509253749</v>
       </c>
       <c r="M10">
-        <v>1.050344085873639</v>
+        <v>1.049270679847976</v>
       </c>
       <c r="N10">
-        <v>1.014572315801984</v>
+        <v>1.015860422659779</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.048467137157156</v>
+        <v>1.047617668777387</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043754882515658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042576017963819</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023957470944641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004417617579008</v>
+        <v>1.00355770820359</v>
       </c>
       <c r="D11">
-        <v>1.03069455619163</v>
+        <v>1.029174116994358</v>
       </c>
       <c r="E11">
-        <v>1.022267407894351</v>
+        <v>1.021560561712925</v>
       </c>
       <c r="F11">
-        <v>1.035197320749998</v>
+        <v>1.034249184805758</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.055421058092086</v>
+        <v>1.054640254531754</v>
       </c>
       <c r="J11">
-        <v>1.033607766318234</v>
+        <v>1.032783227686394</v>
       </c>
       <c r="K11">
-        <v>1.045059938886532</v>
+        <v>1.043566054984046</v>
       </c>
       <c r="L11">
-        <v>1.036781266066986</v>
+        <v>1.036087018168349</v>
       </c>
       <c r="M11">
-        <v>1.049484651954447</v>
+        <v>1.048552878052388</v>
       </c>
       <c r="N11">
-        <v>1.014300496246306</v>
+        <v>1.015895578806662</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.048218359830128</v>
+        <v>1.047481338366736</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043000383677764</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041959650457217</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023844518149872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003703625138784</v>
+        <v>1.002863617903002</v>
       </c>
       <c r="D12">
-        <v>1.030274433569715</v>
+        <v>1.028790241043684</v>
       </c>
       <c r="E12">
-        <v>1.021888054084384</v>
+        <v>1.021185150278956</v>
       </c>
       <c r="F12">
-        <v>1.034987045020376</v>
+        <v>1.034058304919538</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.055320167430895</v>
+        <v>1.054558281240191</v>
       </c>
       <c r="J12">
-        <v>1.033352063799627</v>
+        <v>1.032547276796201</v>
       </c>
       <c r="K12">
-        <v>1.044843732835397</v>
+        <v>1.04338589779623</v>
       </c>
       <c r="L12">
-        <v>1.036607593660609</v>
+        <v>1.035917428027887</v>
       </c>
       <c r="M12">
-        <v>1.049473303122687</v>
+        <v>1.048560850792044</v>
       </c>
       <c r="N12">
-        <v>1.014359033770148</v>
+        <v>1.016019940866931</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.048532503044676</v>
+        <v>1.047811004260778</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042847522034369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041832278314916</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023867276145112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.00440285942582</v>
+        <v>1.003443342344662</v>
       </c>
       <c r="D13">
-        <v>1.03081609047856</v>
+        <v>1.029236270346635</v>
       </c>
       <c r="E13">
-        <v>1.022562993531121</v>
+        <v>1.021742997373518</v>
       </c>
       <c r="F13">
-        <v>1.03571486007318</v>
+        <v>1.0346986702148</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.055596270269013</v>
+        <v>1.054784275902391</v>
       </c>
       <c r="J13">
-        <v>1.03393010012696</v>
+        <v>1.033010594495698</v>
       </c>
       <c r="K13">
-        <v>1.045333660108979</v>
+        <v>1.043781767448994</v>
       </c>
       <c r="L13">
-        <v>1.037227695842504</v>
+        <v>1.036422486989315</v>
       </c>
       <c r="M13">
-        <v>1.050146532466248</v>
+        <v>1.049148074342191</v>
       </c>
       <c r="N13">
-        <v>1.014692299298789</v>
+        <v>1.016194131781896</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04933900246859</v>
+        <v>1.048549691840979</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.043191443903943</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042109451476041</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024004507827844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005530943019991</v>
+        <v>1.004427369046186</v>
       </c>
       <c r="D14">
-        <v>1.031630745289042</v>
+        <v>1.029926287271256</v>
       </c>
       <c r="E14">
-        <v>1.023511009119344</v>
+        <v>1.022557487595695</v>
       </c>
       <c r="F14">
-        <v>1.036648195991858</v>
+        <v>1.03552463738012</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.055959843662883</v>
+        <v>1.055082573286239</v>
       </c>
       <c r="J14">
-        <v>1.034710752847885</v>
+        <v>1.033652509788555</v>
       </c>
       <c r="K14">
-        <v>1.045996047636003</v>
+        <v>1.044321334453237</v>
       </c>
       <c r="L14">
-        <v>1.038019163184008</v>
+        <v>1.037082610327281</v>
       </c>
       <c r="M14">
-        <v>1.050926671843129</v>
+        <v>1.049822461752042</v>
       </c>
       <c r="N14">
-        <v>1.015048934763706</v>
+        <v>1.016340998466552</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.050127637879036</v>
+        <v>1.049254843404653</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.043661173194255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042492476692712</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024153416850564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006123473628792</v>
+        <v>1.004953903298672</v>
       </c>
       <c r="D15">
-        <v>1.032049510371345</v>
+        <v>1.030285456097031</v>
       </c>
       <c r="E15">
-        <v>1.023983855235938</v>
+        <v>1.022971102681012</v>
       </c>
       <c r="F15">
-        <v>1.037094953993261</v>
+        <v>1.035921588560125</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.056136641667116</v>
+        <v>1.055228157878221</v>
       </c>
       <c r="J15">
-        <v>1.035094147751693</v>
+        <v>1.03397218547986</v>
       </c>
       <c r="K15">
-        <v>1.046322597064377</v>
+        <v>1.044589088367003</v>
       </c>
       <c r="L15">
-        <v>1.038397717552779</v>
+        <v>1.037402844735396</v>
       </c>
       <c r="M15">
-        <v>1.051281416975743</v>
+        <v>1.050128099409434</v>
       </c>
       <c r="N15">
-        <v>1.015202097205495</v>
+        <v>1.016395514053377</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.050445292641912</v>
+        <v>1.049533706108919</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.043897854164516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.04268815821742</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024219307254643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009164784131887</v>
+        <v>1.007708250428673</v>
       </c>
       <c r="D16">
-        <v>1.03415276927323</v>
+        <v>1.032113848406629</v>
       </c>
       <c r="E16">
-        <v>1.026306666979265</v>
+        <v>1.025045230542264</v>
       </c>
       <c r="F16">
-        <v>1.039211125129682</v>
+        <v>1.037816341134118</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.056975831510646</v>
+        <v>1.055923362768059</v>
       </c>
       <c r="J16">
-        <v>1.036943806908479</v>
+        <v>1.035543524735367</v>
       </c>
       <c r="K16">
-        <v>1.047896650004562</v>
+        <v>1.04589146630605</v>
       </c>
       <c r="L16">
-        <v>1.040181321212224</v>
+        <v>1.038941150534806</v>
       </c>
       <c r="M16">
-        <v>1.052872041859248</v>
+        <v>1.051500030438747</v>
       </c>
       <c r="N16">
-        <v>1.015829384327696</v>
+        <v>1.016599338444997</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.051664115089205</v>
+        <v>1.050579641092165</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.045013865664776</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043612386493575</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024501166867539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010908161945829</v>
+        <v>1.009317955981556</v>
       </c>
       <c r="D17">
-        <v>1.035340124478574</v>
+        <v>1.033163404217177</v>
       </c>
       <c r="E17">
-        <v>1.027593776435992</v>
+        <v>1.026220054444945</v>
       </c>
       <c r="F17">
-        <v>1.040342757685924</v>
+        <v>1.038841397941666</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.057425626191915</v>
+        <v>1.056300939796286</v>
       </c>
       <c r="J17">
-        <v>1.037953514475186</v>
+        <v>1.036422708878902</v>
       </c>
       <c r="K17">
-        <v>1.048755643258954</v>
+        <v>1.046613914372299</v>
       </c>
       <c r="L17">
-        <v>1.041134687329226</v>
+        <v>1.039783456217106</v>
       </c>
       <c r="M17">
-        <v>1.053678568507237</v>
+        <v>1.052201026934951</v>
       </c>
       <c r="N17">
-        <v>1.01612430290545</v>
+        <v>1.016708901721609</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.052173685106079</v>
+        <v>1.051005682271149</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.045623744063567</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.044125971283827</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02464046456068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01167202136682</v>
+        <v>1.010058428017587</v>
       </c>
       <c r="D18">
-        <v>1.035820484268624</v>
+        <v>1.033605009124573</v>
       </c>
       <c r="E18">
-        <v>1.028072809142678</v>
+        <v>1.026686599801597</v>
       </c>
       <c r="F18">
-        <v>1.040687667091026</v>
+        <v>1.039162878303577</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.057567783829929</v>
+        <v>1.056422787283602</v>
       </c>
       <c r="J18">
-        <v>1.038301211986604</v>
+        <v>1.036746752581547</v>
       </c>
       <c r="K18">
-        <v>1.04904828511052</v>
+        <v>1.046867836650771</v>
       </c>
       <c r="L18">
-        <v>1.041423946321095</v>
+        <v>1.040060056177489</v>
       </c>
       <c r="M18">
-        <v>1.053839187175068</v>
+        <v>1.05233819729568</v>
       </c>
       <c r="N18">
-        <v>1.016139856372691</v>
+        <v>1.016693837152439</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.052065296307874</v>
+        <v>1.050878514379643</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.045819154576002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044292864371232</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024654913012555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011560585025702</v>
+        <v>1.010014264596895</v>
       </c>
       <c r="D19">
-        <v>1.035673592676204</v>
+        <v>1.033503494543169</v>
       </c>
       <c r="E19">
-        <v>1.027829490653481</v>
+        <v>1.026513065213703</v>
       </c>
       <c r="F19">
-        <v>1.040326425219367</v>
+        <v>1.038847941464597</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.057440393600832</v>
+        <v>1.056319185845746</v>
       </c>
       <c r="J19">
-        <v>1.038061732932074</v>
+        <v>1.036571762837495</v>
       </c>
       <c r="K19">
-        <v>1.048842310870142</v>
+        <v>1.046706350118237</v>
       </c>
       <c r="L19">
-        <v>1.041122476163022</v>
+        <v>1.039827144405974</v>
       </c>
       <c r="M19">
-        <v>1.053422563944321</v>
+        <v>1.051967052965093</v>
       </c>
       <c r="N19">
-        <v>1.015918944968641</v>
+        <v>1.016555342975933</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.051413995135514</v>
+        <v>1.05026280365371</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.045679843110837</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044185634610853</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024560975365626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,105 +1555,123 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00897948480667</v>
+        <v>1.007754499390401</v>
       </c>
       <c r="D20">
-        <v>1.033753657296224</v>
+        <v>1.031863355251718</v>
       </c>
       <c r="E20">
-        <v>1.025556466282808</v>
+        <v>1.024542164435361</v>
       </c>
       <c r="F20">
-        <v>1.038008025541868</v>
+        <v>1.036771586306732</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.056554637489831</v>
+        <v>1.055580130554583</v>
       </c>
       <c r="J20">
-        <v>1.036168597459346</v>
+        <v>1.034989736430971</v>
       </c>
       <c r="K20">
-        <v>1.047227865849615</v>
+        <v>1.045368146436838</v>
       </c>
       <c r="L20">
-        <v>1.039164343900889</v>
+        <v>1.038166773318032</v>
       </c>
       <c r="M20">
-        <v>1.051413926274087</v>
+        <v>1.05019726511175</v>
       </c>
       <c r="N20">
-        <v>1.015025069340338</v>
+        <v>1.01605613118562</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.049303369458786</v>
+        <v>1.048340521257257</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044542276273872</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04324377128538</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024159860509133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>1.003212205979125</v>
+        <v>1.002596717211252</v>
       </c>
       <c r="D21">
-        <v>1.029740789665995</v>
+        <v>1.028414190611194</v>
       </c>
       <c r="E21">
-        <v>1.021072207731407</v>
+        <v>1.020602419769344</v>
       </c>
       <c r="F21">
-        <v>1.033885358203474</v>
+        <v>1.033116460986919</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.054923896668953</v>
+        <v>1.054244835719183</v>
       </c>
       <c r="J21">
-        <v>1.032576237404734</v>
+        <v>1.031986270514113</v>
       </c>
       <c r="K21">
-        <v>1.044179801263601</v>
+        <v>1.042876527912202</v>
       </c>
       <c r="L21">
-        <v>1.035665063569053</v>
+        <v>1.035203710090602</v>
       </c>
       <c r="M21">
-        <v>1.048251994651886</v>
+        <v>1.047496467620324</v>
       </c>
       <c r="N21">
-        <v>1.013719836167688</v>
+        <v>1.015654871067</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.046760580903437</v>
+        <v>1.04616263680682</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042390433866547</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041485685328542</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023600773378482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9995298508912444</v>
+        <v>0.9993034195634953</v>
       </c>
       <c r="D22">
-        <v>1.027185373743294</v>
+        <v>1.026218344805166</v>
       </c>
       <c r="E22">
-        <v>1.018227870464725</v>
+        <v>1.018106000998562</v>
       </c>
       <c r="F22">
-        <v>1.031284978289819</v>
+        <v>1.030814676050678</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.053875246444842</v>
+        <v>1.053384320237864</v>
       </c>
       <c r="J22">
-        <v>1.030290693018637</v>
+        <v>1.03007421658865</v>
       </c>
       <c r="K22">
-        <v>1.042236858463708</v>
+        <v>1.041287709721037</v>
       </c>
       <c r="L22">
-        <v>1.033446676451105</v>
+        <v>1.033327109972252</v>
       </c>
       <c r="M22">
-        <v>1.046261146866328</v>
+        <v>1.045799445205122</v>
       </c>
       <c r="N22">
-        <v>1.012893978210741</v>
+        <v>1.015396960162771</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.045184970207655</v>
+        <v>1.044819566562802</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041003349936223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.04034768124352</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023245260518099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001472469676232</v>
+        <v>1.001024030476454</v>
       </c>
       <c r="D23">
-        <v>1.028528491879326</v>
+        <v>1.027359215159844</v>
       </c>
       <c r="E23">
-        <v>1.01972418564677</v>
+        <v>1.019403742883083</v>
       </c>
       <c r="F23">
-        <v>1.032654580410384</v>
+        <v>1.032014970273043</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.054425909388417</v>
+        <v>1.053829136687245</v>
       </c>
       <c r="J23">
-        <v>1.031490592660978</v>
+        <v>1.031061271669332</v>
       </c>
       <c r="K23">
-        <v>1.043254982086861</v>
+        <v>1.042106761416301</v>
       </c>
       <c r="L23">
-        <v>1.034610768208589</v>
+        <v>1.034296220144001</v>
       </c>
       <c r="M23">
-        <v>1.047307263545416</v>
+        <v>1.04667904451575</v>
       </c>
       <c r="N23">
-        <v>1.013321938366354</v>
+        <v>1.01548007950825</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.046012895616403</v>
+        <v>1.045515705971913</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041713648575165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040916283010654</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023422989939566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.008975716111818</v>
+        <v>1.007761925356035</v>
       </c>
       <c r="D24">
-        <v>1.033733243056766</v>
+        <v>1.031849611423719</v>
       </c>
       <c r="E24">
-        <v>1.025526240554649</v>
+        <v>1.024523831024597</v>
       </c>
       <c r="F24">
-        <v>1.037964077288906</v>
+        <v>1.03673529337225</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.056533659355031</v>
+        <v>1.055562690878128</v>
       </c>
       <c r="J24">
-        <v>1.03613257798556</v>
+        <v>1.034964425829815</v>
       </c>
       <c r="K24">
-        <v>1.047192776607901</v>
+        <v>1.045339582057523</v>
       </c>
       <c r="L24">
-        <v>1.039119440536241</v>
+        <v>1.03813354594345</v>
       </c>
       <c r="M24">
-        <v>1.051355762162333</v>
+        <v>1.050146610739128</v>
       </c>
       <c r="N24">
-        <v>1.01498643541056</v>
+        <v>1.016029948883329</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.049216979612551</v>
+        <v>1.048260028107794</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044490377009649</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043193802638261</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024140764888517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01734830208903</v>
+        <v>1.015532648673248</v>
       </c>
       <c r="D25">
-        <v>1.039557798041753</v>
+        <v>1.03705567702847</v>
       </c>
       <c r="E25">
-        <v>1.032032366841949</v>
+        <v>1.030495757417362</v>
       </c>
       <c r="F25">
-        <v>1.043920863797843</v>
+        <v>1.042208535557096</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.058831958941737</v>
+        <v>1.057536922445443</v>
       </c>
       <c r="J25">
-        <v>1.041305606855659</v>
+        <v>1.039548350635261</v>
       </c>
       <c r="K25">
-        <v>1.051571568011658</v>
+        <v>1.049104750220654</v>
       </c>
       <c r="L25">
-        <v>1.044152969738938</v>
+        <v>1.04263841735306</v>
       </c>
       <c r="M25">
-        <v>1.055873584762431</v>
+        <v>1.054185138877763</v>
       </c>
       <c r="N25">
-        <v>1.016839546457511</v>
+        <v>1.017258112869201</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.05279248217066</v>
+        <v>1.051456211561594</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.047583501754762</v>
+        <v>1.045852758150558</v>
+      </c>
+      <c r="S25">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T25">
+        <v>1.025000766926507</v>
       </c>
     </row>
   </sheetData>
